--- a/Output de dados/erros_viagens_diaria.xlsx
+++ b/Output de dados/erros_viagens_diaria.xlsx
@@ -424,19 +424,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.02385203013999938</v>
+        <v>0.02179753267665111</v>
       </c>
       <c r="C2">
         <v>0.02071282501093889</v>
       </c>
       <c r="D2">
-        <v>0.1175444358343094</v>
+        <v>0.01879642144659549</v>
       </c>
       <c r="E2">
         <v>0.02086174181645351</v>
       </c>
       <c r="F2">
-        <v>0.02550977829051026</v>
+        <v>0.08318987380918343</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.01877875937748275</v>
+        <v>0.01633651666480997</v>
       </c>
       <c r="C3">
         <v>0.01372937293729373</v>
       </c>
       <c r="D3">
-        <v>0.06540004584201885</v>
+        <v>0.01417228597347231</v>
       </c>
       <c r="E3">
         <v>0.01662532748288425</v>
       </c>
       <c r="F3">
-        <v>0.01890957810908834</v>
+        <v>0.07515066141732571</v>
       </c>
     </row>
   </sheetData>
@@ -494,13 +494,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.03003511936800884</v>
+        <v>0.03031291637210963</v>
       </c>
       <c r="C2">
         <v>0.02625973802219346</v>
       </c>
       <c r="D2">
-        <v>25.9499787587648</v>
+        <v>0.04799263465484215</v>
       </c>
       <c r="E2">
         <v>0.02830985351788409</v>
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.02627776354367787</v>
+        <v>0.02584053947893853</v>
       </c>
       <c r="C3">
         <v>0.02232094337572003</v>
       </c>
       <c r="D3">
-        <v>10.62252326756698</v>
+        <v>0.04590921430573769</v>
       </c>
       <c r="E3">
         <v>0.02489709410641624</v>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.02947335312716892</v>
+        <v>0.0291473263824146</v>
       </c>
       <c r="C2">
         <v>0.02870000800561296</v>
@@ -584,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.02668180386439192</v>
+        <v>0.02577321002307439</v>
       </c>
       <c r="C3">
         <v>0.02755457133818412</v>
@@ -634,13 +634,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01984682415872621</v>
+        <v>0.01903664042968252</v>
       </c>
       <c r="C2">
         <v>0.03140257256153288</v>
       </c>
       <c r="D2">
-        <v>0.02711813475509163</v>
+        <v>0.02641991141741556</v>
       </c>
       <c r="E2">
         <v>0.02901280608809461</v>
@@ -654,13 +654,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.01863396132669819</v>
+        <v>0.01858664733778813</v>
       </c>
       <c r="C3">
         <v>0.02997262773722628</v>
       </c>
       <c r="D3">
-        <v>0.02700339752502187</v>
+        <v>0.02629955037142393</v>
       </c>
       <c r="E3">
         <v>0.02577305915774132</v>
@@ -704,19 +704,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.02210589157847951</v>
+        <v>0.02601523430715038</v>
       </c>
       <c r="C2">
         <v>0.02773610532723082</v>
       </c>
       <c r="D2">
-        <v>0.0200744607760802</v>
+        <v>0.02017375267478982</v>
       </c>
       <c r="E2">
         <v>0.02336011965502294</v>
       </c>
       <c r="F2">
-        <v>0.0340812369254725</v>
+        <v>0.03241334987898496</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -724,19 +724,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.0207864370187946</v>
+        <v>0.02594801522922061</v>
       </c>
       <c r="C3">
         <v>0.02701888308557654</v>
       </c>
       <c r="D3">
-        <v>0.01935345704387857</v>
+        <v>0.01947339507150611</v>
       </c>
       <c r="E3">
         <v>0.02331064778436668</v>
       </c>
       <c r="F3">
-        <v>0.02350472254776607</v>
+        <v>0.02393297254669709</v>
       </c>
     </row>
   </sheetData>
